--- a/data/Excel Workbooks/Calvin2011/UnitedKingdomDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/UnitedKingdomDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="340" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="21840" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UK Workbook" sheetId="1" r:id="rId1"/>
@@ -6530,12 +6530,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6546,6 +6540,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11849,11 +11849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111353704"/>
-        <c:axId val="-2111345768"/>
+        <c:axId val="-2117827272"/>
+        <c:axId val="-2117814728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111353704"/>
+        <c:axId val="-2117827272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -11877,18 +11877,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111345768"/>
+        <c:crossAx val="-2117814728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111345768"/>
+        <c:axId val="-2117814728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -11916,13 +11917,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111353704"/>
+        <c:crossAx val="-2117827272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -12875,11 +12877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111185032"/>
-        <c:axId val="-2111025256"/>
+        <c:axId val="-2140899400"/>
+        <c:axId val="-2144434456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111185032"/>
+        <c:axId val="-2140899400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -12909,13 +12911,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111025256"/>
+        <c:crossAx val="-2144434456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111025256"/>
+        <c:axId val="-2144434456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -12964,7 +12966,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111185032"/>
+        <c:crossAx val="-2140899400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14718,11 +14720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111708680"/>
-        <c:axId val="-2108834456"/>
+        <c:axId val="-2118773528"/>
+        <c:axId val="-2118751064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111708680"/>
+        <c:axId val="-2118773528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -14752,13 +14754,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108834456"/>
+        <c:crossAx val="-2118751064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108834456"/>
+        <c:axId val="-2118751064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14786,7 +14788,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111708680"/>
+        <c:crossAx val="-2118773528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15718,11 +15720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108884248"/>
-        <c:axId val="-2108867032"/>
+        <c:axId val="-2118600184"/>
+        <c:axId val="-2118601832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108884248"/>
+        <c:axId val="-2118600184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15732,12 +15734,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108867032"/>
+        <c:crossAx val="-2118601832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108867032"/>
+        <c:axId val="-2118601832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15748,7 +15750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108884248"/>
+        <c:crossAx val="-2118600184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15773,7 +15775,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15806,7 +15808,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8640536" cy="6288444"/>
+    <xdr:ext cx="8572500" cy="5820833"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18772,18 +18774,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -18799,7 +18801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -20140,8 +20142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21125,13 +21127,13 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="143" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="139" t="s">
@@ -21164,10 +21166,10 @@
       <c r="M29" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="143" t="s">
+      <c r="N29" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="145" t="s">
+      <c r="O29" s="143" t="s">
         <v>58</v>
       </c>
       <c r="P29" s="139" t="s">
@@ -21182,10 +21184,10 @@
       <c r="S29" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="143" t="s">
+      <c r="T29" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="145" t="s">
+      <c r="U29" s="143" t="s">
         <v>29</v>
       </c>
       <c r="V29" s="139" t="s">
@@ -21212,13 +21214,13 @@
       <c r="AC29" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="AD29" s="141" t="s">
+      <c r="AD29" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="AE29" s="143" t="s">
+      <c r="AE29" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" s="145" t="s">
+      <c r="AF29" s="143" t="s">
         <v>84</v>
       </c>
       <c r="AG29" s="139" t="s">
@@ -21245,14 +21247,14 @@
       <c r="AN29" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="AO29" s="141" t="s">
+      <c r="AO29" s="145" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="144"/>
+      <c r="A30" s="142"/>
       <c r="B30" s="140"/>
-      <c r="C30" s="146"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
       <c r="F30" s="140"/>
@@ -21263,14 +21265,14 @@
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
       <c r="M30" s="140"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="146"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="144"/>
       <c r="P30" s="140"/>
       <c r="Q30" s="140"/>
       <c r="R30" s="140"/>
       <c r="S30" s="140"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="146"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="144"/>
       <c r="V30" s="140"/>
       <c r="W30" s="140"/>
       <c r="X30" s="140"/>
@@ -21279,9 +21281,9 @@
       <c r="AA30" s="140"/>
       <c r="AB30" s="140"/>
       <c r="AC30" s="140"/>
-      <c r="AD30" s="142"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="144"/>
       <c r="AG30" s="140"/>
       <c r="AH30" s="140"/>
       <c r="AI30" s="140"/>
@@ -21290,7 +21292,7 @@
       <c r="AL30" s="140"/>
       <c r="AM30" s="140"/>
       <c r="AN30" s="140"/>
-      <c r="AO30" s="142"/>
+      <c r="AO30" s="146"/>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="48">
@@ -25943,14 +25945,27 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
     <mergeCell ref="T29:T30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="L29:L30"/>
@@ -25963,27 +25978,14 @@
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AJ29:AJ30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -37671,17 +37673,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="E5:G6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
